--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Country name</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Antigua and Barbuda</t>
   </si>
   <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Chad</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -306,9 +297,6 @@
     <t>Peru</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
@@ -385,9 +373,6 @@
   </si>
   <si>
     <t>Uganda</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
   </si>
   <si>
     <t>Vanuatu</t>
@@ -777,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H110"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -838,7 +823,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
@@ -847,12 +832,12 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
@@ -874,7 +859,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -882,7 +867,10 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -891,14 +879,12 @@
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
@@ -907,10 +893,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -920,7 +906,7 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -937,10 +923,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -951,7 +937,9 @@
         <v>19</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
@@ -987,9 +975,7 @@
         <v>22</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -1016,7 +1002,7 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D18">
+      <c r="B18">
         <v>1</v>
       </c>
     </row>
@@ -1024,7 +1010,7 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
@@ -1032,10 +1018,10 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1047,11 +1033,11 @@
         <v>27</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1060,7 +1046,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1054,7 @@
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
@@ -1091,10 +1077,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1104,7 +1090,7 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
     </row>
@@ -1112,7 +1098,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1134,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
@@ -1156,7 +1142,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>
@@ -1165,11 +1151,11 @@
         <v>38</v>
       </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1192,6 +1178,9 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="E34">
         <v>1</v>
       </c>
@@ -1200,7 +1189,7 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="E35">
+      <c r="C35">
         <v>1</v>
       </c>
     </row>
@@ -1209,26 +1198,26 @@
         <v>42</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1238,10 +1227,7 @@
       <c r="A38" t="s">
         <v>44</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="D38">
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +1235,7 @@
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
@@ -1259,11 +1245,11 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
@@ -1285,7 +1271,7 @@
       <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="F42">
+      <c r="C42">
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1279,7 @@
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>1</v>
       </c>
     </row>
@@ -1302,10 +1288,10 @@
         <v>50</v>
       </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -1316,11 +1302,11 @@
         <v>51</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1337,7 +1323,7 @@
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>1</v>
       </c>
     </row>
@@ -1346,25 +1332,27 @@
         <v>54</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1376,15 +1364,12 @@
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="C51">
+      <c r="G51">
         <v>1</v>
       </c>
     </row>
@@ -1407,20 +1392,20 @@
         <v>59</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="C54">
+      <c r="G54">
         <v>1</v>
       </c>
     </row>
@@ -1437,13 +1422,13 @@
         <v>62</v>
       </c>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1451,12 +1436,12 @@
         <v>63</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
@@ -1464,7 +1449,10 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="C58">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>1</v>
       </c>
     </row>
@@ -1472,7 +1460,7 @@
       <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="F59">
+      <c r="D59">
         <v>1</v>
       </c>
     </row>
@@ -1481,14 +1469,12 @@
         <v>66</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
@@ -1497,10 +1483,10 @@
         <v>67</v>
       </c>
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -1510,7 +1496,7 @@
       <c r="A62" t="s">
         <v>68</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>1</v>
       </c>
     </row>
@@ -1527,10 +1513,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -1554,7 +1540,7 @@
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>1</v>
       </c>
     </row>
@@ -1571,11 +1557,11 @@
         <v>74</v>
       </c>
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -1585,10 +1571,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -1598,7 +1584,7 @@
       <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>1</v>
       </c>
     </row>
@@ -1606,7 +1592,7 @@
       <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>1</v>
       </c>
     </row>
@@ -1629,11 +1615,11 @@
         <v>79</v>
       </c>
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>1</v>
-      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1642,7 +1628,7 @@
       <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="D74">
+      <c r="C74">
         <v>1</v>
       </c>
     </row>
@@ -1673,11 +1659,11 @@
         <v>83</v>
       </c>
       <c r="B77" s="2"/>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -1694,7 +1680,7 @@
       <c r="A79" t="s">
         <v>85</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>1</v>
       </c>
     </row>
@@ -1717,20 +1703,23 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="E82">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
         <v>1</v>
       </c>
     </row>
@@ -1738,7 +1727,7 @@
       <c r="A83" t="s">
         <v>89</v>
       </c>
-      <c r="E83">
+      <c r="C83">
         <v>1</v>
       </c>
     </row>
@@ -1761,13 +1750,13 @@
         <v>91</v>
       </c>
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="2">
-        <v>1</v>
-      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -1777,15 +1766,12 @@
       <c r="C86">
         <v>1</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>1</v>
       </c>
     </row>
@@ -1797,7 +1783,9 @@
       <c r="C88" s="2">
         <v>1</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -1829,7 +1817,7 @@
       <c r="A91" t="s">
         <v>97</v>
       </c>
-      <c r="D91">
+      <c r="C91">
         <v>1</v>
       </c>
     </row>
@@ -1841,9 +1829,7 @@
       <c r="C92" s="2">
         <v>1</v>
       </c>
-      <c r="D92" s="2">
-        <v>1</v>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -1875,7 +1861,7 @@
       <c r="A95" t="s">
         <v>101</v>
       </c>
-      <c r="C95">
+      <c r="E95">
         <v>1</v>
       </c>
     </row>
@@ -1898,12 +1884,14 @@
         <v>103</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2">
+        <v>1</v>
+      </c>
       <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
@@ -1911,7 +1899,7 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="C98">
+      <c r="B98">
         <v>1</v>
       </c>
     </row>
@@ -1919,7 +1907,7 @@
       <c r="A99" t="s">
         <v>105</v>
       </c>
-      <c r="E99">
+      <c r="C99">
         <v>1</v>
       </c>
     </row>
@@ -1928,10 +1916,10 @@
         <v>106</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2">
-        <v>1</v>
-      </c>
-      <c r="D100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -1942,14 +1930,12 @@
         <v>107</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2">
-        <v>1</v>
-      </c>
+      <c r="C101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D101" s="2"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="2">
-        <v>1</v>
-      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
     </row>
@@ -1957,7 +1943,7 @@
       <c r="A102" t="s">
         <v>108</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>1</v>
       </c>
     </row>
@@ -2012,6 +1998,9 @@
       <c r="C107">
         <v>1</v>
       </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
@@ -2019,10 +2008,10 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2">
-        <v>1</v>
-      </c>
-      <c r="E108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2046,60 +2035,6 @@
         <v>116</v>
       </c>
       <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>117</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2">
-        <v>1</v>
-      </c>
-      <c r="D112" s="2">
-        <v>1</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>120</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>121</v>
-      </c>
-      <c r="C115">
         <v>1</v>
       </c>
     </row>

--- a/Images/Countries.xlsx
+++ b/Images/Countries.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Country name</t>
   </si>
@@ -84,6 +84,9 @@
     <t>Benin</t>
   </si>
   <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
@@ -237,9 +240,6 @@
     <t>Malawi</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -252,6 +252,9 @@
     <t>Mauritius</t>
   </si>
   <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -261,9 +264,6 @@
     <t>Nauru</t>
   </si>
   <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -297,6 +297,9 @@
     <t>Peru</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Russia</t>
   </si>
   <si>
@@ -348,9 +351,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
     <t>Tanzania</t>
   </si>
   <si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
   </si>
   <si>
     <t>Tuvalu</t>
@@ -762,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0000-0000-0000-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H109"/>
   <!-- B4P: Example: A1:Z9 -->
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1" showGridLines="0">
@@ -906,7 +903,7 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>1</v>
       </c>
     </row>
@@ -923,10 +920,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -937,9 +934,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="2"/>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>1</v>
       </c>
@@ -975,7 +970,9 @@
         <v>22</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -1002,7 +999,7 @@
       <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18">
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
@@ -1010,7 +1007,7 @@
       <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="C19">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -1033,11 +1030,11 @@
         <v>27</v>
       </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1046,7 +1043,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1</v>
       </c>
     </row>
@@ -1077,10 +1074,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1090,7 +1087,7 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1095,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1</v>
       </c>
     </row>
@@ -1108,10 +1105,10 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1122,10 +1119,10 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1134,7 +1131,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1</v>
       </c>
     </row>
@@ -1142,7 +1139,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="E31">
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
@@ -1178,9 +1175,6 @@
       <c r="A34" t="s">
         <v>40</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="E34">
         <v>1</v>
       </c>
@@ -1189,7 +1183,10 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>1</v>
       </c>
     </row>
@@ -1205,23 +1202,23 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1235,7 +1232,7 @@
       <c r="A39" t="s">
         <v>45</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>1</v>
       </c>
     </row>
@@ -1244,12 +1241,12 @@
         <v>46</v>
       </c>
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
+      <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
@@ -1258,12 +1255,12 @@
         <v>47</v>
       </c>
       <c r="B41" s="2"/>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
@@ -1279,7 +1276,7 @@
       <c r="A43" t="s">
         <v>49</v>
       </c>
-      <c r="E43">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
@@ -1289,10 +1286,10 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1302,10 +1299,10 @@
         <v>51</v>
       </c>
       <c r="B45" s="2"/>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
-      <c r="D45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1315,7 +1312,7 @@
       <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1320,7 @@
       <c r="A47" t="s">
         <v>53</v>
       </c>
-      <c r="E47">
+      <c r="D47">
         <v>1</v>
       </c>
     </row>
@@ -1332,16 +1329,14 @@
         <v>54</v>
       </c>
       <c r="B48" s="2"/>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -1355,7 +1350,9 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1369,7 +1366,7 @@
       <c r="A51" t="s">
         <v>57</v>
       </c>
-      <c r="G51">
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
@@ -1378,13 +1375,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2"/>
-      <c r="C52" s="2">
-        <v>1</v>
-      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1405,7 +1402,7 @@
       <c r="A54" t="s">
         <v>60</v>
       </c>
-      <c r="G54">
+      <c r="C54">
         <v>1</v>
       </c>
     </row>
@@ -1413,7 +1410,7 @@
       <c r="A55" t="s">
         <v>61</v>
       </c>
-      <c r="C55">
+      <c r="G55">
         <v>1</v>
       </c>
     </row>
@@ -1436,12 +1433,12 @@
         <v>63</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
@@ -1449,9 +1446,6 @@
       <c r="A58" t="s">
         <v>64</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -1463,16 +1457,19 @@
       <c r="D59">
         <v>1</v>
       </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="2"/>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -1540,7 +1537,7 @@
       <c r="A66" t="s">
         <v>72</v>
       </c>
-      <c r="D66">
+      <c r="C66">
         <v>1</v>
       </c>
     </row>
@@ -1548,7 +1545,7 @@
       <c r="A67" t="s">
         <v>73</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>1</v>
       </c>
     </row>
@@ -1703,23 +1700,20 @@
         <v>87</v>
       </c>
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2">
-        <v>1</v>
-      </c>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
+      <c r="G82">
         <v>1</v>
       </c>
     </row>
@@ -1728,6 +1722,9 @@
         <v>89</v>
       </c>
       <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
         <v>1</v>
       </c>
     </row>
@@ -1771,7 +1768,7 @@
       <c r="A87" t="s">
         <v>93</v>
       </c>
-      <c r="D87">
+      <c r="C87">
         <v>1</v>
       </c>
     </row>
@@ -1780,9 +1777,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="2">
         <v>1</v>
       </c>
@@ -1799,7 +1794,9 @@
       <c r="C89" s="2">
         <v>1</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -1861,7 +1858,7 @@
       <c r="A95" t="s">
         <v>101</v>
       </c>
-      <c r="E95">
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
@@ -1870,11 +1867,11 @@
         <v>102</v>
       </c>
       <c r="B96" s="2"/>
-      <c r="C96" s="2">
-        <v>1</v>
-      </c>
+      <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -1884,14 +1881,12 @@
         <v>103</v>
       </c>
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2">
-        <v>1</v>
-      </c>
+      <c r="C97" s="2">
+        <v>1</v>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="2">
-        <v>1</v>
-      </c>
+      <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
     </row>
@@ -1899,7 +1894,10 @@
       <c r="A98" t="s">
         <v>104</v>
       </c>
-      <c r="B98">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="F98">
         <v>1</v>
       </c>
     </row>
@@ -1960,10 +1958,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2">
-        <v>1</v>
-      </c>
+      <c r="C104" s="2">
+        <v>1</v>
+      </c>
+      <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -1990,15 +1988,15 @@
       <c r="C106">
         <v>1</v>
       </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
+      <c r="E107">
         <v>1</v>
       </c>
     </row>
@@ -2007,11 +2005,11 @@
         <v>114</v>
       </c>
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2">
+        <v>1</v>
+      </c>
       <c r="D108" s="2"/>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -2029,14 +2027,6 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
